--- a/biology/Botanique/Lamium_garganicum/Lamium_garganicum.xlsx
+++ b/biology/Botanique/Lamium_garganicum/Lamium_garganicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lamium garganicum, le lamier à grandes fleurs ou ortie morte, est une espèce de plantes herbacées vivaces de la famille des Lamiaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante présente de grandes fleurs dont le tube de la corolle est droit et non courbé comme chez Lamium maculatum.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve dans les montagnes des régions entourant la Méditerranée (en France, Alpes du Sud surtout, Pyrénées, massif des Corbières).
 </t>
@@ -573,7 +589,9 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'est pas considérée comme étant menacée en France. En 2021 elle est classée Espèce de préoccupation mineure (LC) par l'UICN.
 Toutefois localement l'espèce peut se raréfier : elle est considérée Vulnérable (VU) en Rhône-Alpes.
@@ -605,7 +623,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Lamium garganicum subsp. corsicum L.
 Lamium garganicum subsp. garganicum L. - basionyme : Lamium grandiflorum Pourr.
